--- a/university_reports.xlsx
+++ b/university_reports.xlsx
@@ -644,14 +644,16 @@
           <t>غياب</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n">
-        <v>69</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>69</v>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>غياب</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
@@ -1008,8 +1010,10 @@
           <t>أحمد محمود عبدالله المقطري</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0</v>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>غياب</t>
+        </is>
       </c>
       <c r="E5" s="4" t="n">
         <v>0</v>
@@ -1033,8 +1037,10 @@
           <t>خالد سعيد محمد الأنسي</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>غياب</t>
+        </is>
       </c>
       <c r="E6" s="4" t="n">
         <v>0</v>
@@ -1058,8 +1064,10 @@
           <t>سعيد عبدالعزيز علي المقطري</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>غياب</t>
+        </is>
       </c>
       <c r="E7" s="4" t="n">
         <v>0</v>
@@ -1083,8 +1091,10 @@
           <t>عبدالله أحمد ناصر الشامي</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>0</v>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>غياب</t>
+        </is>
       </c>
       <c r="E8" s="4" t="n">
         <v>0</v>
@@ -1108,8 +1118,10 @@
           <t>عبدالله عبدالرحمن عبدالعزيز المقطري</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>غياب</t>
+        </is>
       </c>
       <c r="E9" s="4" t="n">
         <v>0</v>
@@ -1133,8 +1145,10 @@
           <t>عبدالله عبدالعزيز ناصر الشميري</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>غياب</t>
+        </is>
       </c>
       <c r="E10" s="4" t="n">
         <v>0</v>
@@ -1158,18 +1172,18 @@
           <t>عبدالله عبدالله محمود الزيدي</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>0</v>
+      <c r="D11" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>75</v>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>راسب</t>
+          <t>جيد جدا</t>
         </is>
       </c>
     </row>
@@ -1183,8 +1197,10 @@
           <t>عمر عبدالعزيز عبدالعزيز المقطري</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
-        <v>0</v>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>غياب</t>
+        </is>
       </c>
       <c r="E12" s="4" t="n">
         <v>0</v>
@@ -1224,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
